--- a/sport_description/en/description.xlsx
+++ b/sport_description/en/description.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filac\OneDrive\Plocha\maturitni_projekt\maturita\sport_description\en\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\maturita\sport_description\en\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3431107-C825-42C5-A05A-FE1382E27B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063BA8F5-CD65-45D0-9A4A-DE5F30CAF9EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C77E7B78-0D94-4FC0-B4FE-F61C150DEAEE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C77E7B78-0D94-4FC0-B4FE-F61C150DEAEE}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -44,9 +44,6 @@
     <t>desc</t>
   </si>
   <si>
-    <t>Rugby je kolektivní sport, který se hraje mezi dvěma týmy po patnácti hráčích, nebo omezenější variantou po sedmi hráčích. Existují dvě hlavní varianty: rugby union a rugby league. Hra spočívá v tom, že hráči s oválným míčem postupují směrem k soupeřově brance, přičemž mohou hodit, kopnout nebo předat míč. Cílem je překonat bránící tým a položit míč za brankovou čáru soupeře. Rugby je známé pro svou fyzickou náročnost, strategii a týmovou spolupráci. Je populární po celém světě a má mezinárodní prestiž, včetně světového poháru.</t>
-  </si>
-  <si>
     <t>Archery is a sport where competitors use a bow to shoot arrows towards a target. The aim is to achieve the best accuracy and power of shooting at a set distance. It involves technical precision, strength and control of the bow. This traditional skill sport has its roots in the history of hunting and military use of the bow.</t>
   </si>
   <si>
@@ -141,6 +138,9 @@
   </si>
   <si>
     <t>Weightlifting is a strength sport where competitors compete by lifting the heaviest possible weights above their heads in precise techniques. Weightlifting consists of two main disciplines: snatch and clean and jerk. The snatch involves lifting a single dumbbell off the floor above the head in a single smooth movement. The snatch involves lifting a dumbbell to the chest and then overhead. Weightlifting requires strength, coordination, technique and speed. It is part of the Summer Olympics and is popular for its difficulty and significant training effect on overall strength and muscle mass.</t>
+  </si>
+  <si>
+    <t>Rugby is a team sport played between two teams of fifteen players, or a more limited variant of seven players. There are two main variants: rugby union and rugby league. The game consists of players advancing towards the opponent's goal with an oval ball, and they can throw, kick or pass the ball. The aim is to overcome the defending team and put the ball over the opposition's goal line. Rugby is known for its physicality, strategy and teamwork. It is popular around the world and has international prestige, including the World Cup.</t>
   </si>
 </sst>
 </file>
@@ -184,9 +184,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -505,284 +504,281 @@
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row r="2" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="4" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="5" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="6" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
+    <row r="7" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
+    <row r="8" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
+    <row r="9" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
+    <row r="10" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
+    <row r="11" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
+    <row r="12" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
+    <row r="13" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="s">
+    <row r="14" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2" t="s">
+    <row r="15" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2" t="s">
+    <row r="16" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2" t="s">
+    <row r="17" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2" t="s">
+    <row r="18" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2" t="s">
+    <row r="19" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2" t="s">
+    <row r="20" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2" t="s">
+    <row r="21" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2" t="s">
+    <row r="22" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" s="2" t="s">
+    <row r="23" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" s="2" t="s">
+    <row r="24" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" s="2" t="s">
+    <row r="26" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" s="2" t="s">
+    <row r="27" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" s="2" t="s">
+    <row r="28" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" s="2" t="s">
+    <row r="29" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" s="2" t="s">
+    <row r="30" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" s="2" t="s">
+    <row r="31" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" s="2" t="s">
+    <row r="32" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" s="2" t="s">
+    <row r="33" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" s="2" t="s">
+    <row r="34" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
